--- a/0_0_Data/2_Processed_Data/1_combined_GDP_series/yoy_combined_GDP_data.xlsx
+++ b/0_0_Data/2_Processed_Data/1_combined_GDP_series/yoy_combined_GDP_data.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:ES57"/>
+  <dimension ref="A1:ET57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:149">
+    <row r="1" spans="1:150">
       <c r="B1" s="1">
         <v>32508</v>
       </c>
@@ -820,18 +820,21 @@
       <c r="ES1" s="1">
         <v>45891</v>
       </c>
+      <c r="ET1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:149">
+    <row r="2" spans="1:150">
       <c r="A2" s="1">
         <v>25933</v>
       </c>
     </row>
-    <row r="3" spans="1:149">
+    <row r="3" spans="1:150">
       <c r="A3" s="1">
         <v>26298</v>
       </c>
     </row>
-    <row r="4" spans="1:149">
+    <row r="4" spans="1:150">
       <c r="A4" s="1">
         <v>26664</v>
       </c>
@@ -1279,8 +1282,11 @@
       <c r="ES4">
         <v>4.249909189974566</v>
       </c>
+      <c r="ET4">
+        <v>4.249909189974566</v>
+      </c>
     </row>
-    <row r="5" spans="1:149">
+    <row r="5" spans="1:150">
       <c r="A5" s="1">
         <v>27029</v>
       </c>
@@ -1728,8 +1734,11 @@
       <c r="ES5">
         <v>4.988385598141676</v>
       </c>
+      <c r="ET5">
+        <v>4.988385598141676</v>
+      </c>
     </row>
-    <row r="6" spans="1:149">
+    <row r="6" spans="1:150">
       <c r="A6" s="1">
         <v>27394</v>
       </c>
@@ -2177,8 +2186,11 @@
       <c r="ES6">
         <v>0.9845677305160505</v>
       </c>
+      <c r="ET6">
+        <v>0.9845677305160505</v>
+      </c>
     </row>
-    <row r="7" spans="1:149">
+    <row r="7" spans="1:150">
       <c r="A7" s="1">
         <v>27759</v>
       </c>
@@ -2626,8 +2638,11 @@
       <c r="ES7">
         <v>-0.8708988333242074</v>
       </c>
+      <c r="ET7">
+        <v>-0.8708988333242074</v>
+      </c>
     </row>
-    <row r="8" spans="1:149">
+    <row r="8" spans="1:150">
       <c r="A8" s="1">
         <v>28125</v>
       </c>
@@ -3075,8 +3090,11 @@
       <c r="ES8">
         <v>4.431428887169875</v>
       </c>
+      <c r="ET8">
+        <v>4.431428887169875</v>
+      </c>
     </row>
-    <row r="9" spans="1:149">
+    <row r="9" spans="1:150">
       <c r="A9" s="1">
         <v>28490</v>
       </c>
@@ -3524,8 +3542,11 @@
       <c r="ES9">
         <v>3.518518518518499</v>
       </c>
+      <c r="ET9">
+        <v>3.518518518518499</v>
+      </c>
     </row>
-    <row r="10" spans="1:149">
+    <row r="10" spans="1:150">
       <c r="A10" s="1">
         <v>28855</v>
       </c>
@@ -3973,8 +3994,11 @@
       <c r="ES10">
         <v>3.102478916432405</v>
       </c>
+      <c r="ET10">
+        <v>3.102478916432405</v>
+      </c>
     </row>
-    <row r="11" spans="1:149">
+    <row r="11" spans="1:150">
       <c r="A11" s="1">
         <v>29220</v>
       </c>
@@ -4422,8 +4446,11 @@
       <c r="ES11">
         <v>4.293079516161025</v>
       </c>
+      <c r="ET11">
+        <v>4.293079516161025</v>
+      </c>
     </row>
-    <row r="12" spans="1:149">
+    <row r="12" spans="1:150">
       <c r="A12" s="1">
         <v>29586</v>
       </c>
@@ -4871,8 +4898,11 @@
       <c r="ES12">
         <v>1.283391957410407</v>
       </c>
+      <c r="ET12">
+        <v>1.283391957410407</v>
+      </c>
     </row>
-    <row r="13" spans="1:149">
+    <row r="13" spans="1:150">
       <c r="A13" s="1">
         <v>29951</v>
       </c>
@@ -5320,8 +5350,11 @@
       <c r="ES13">
         <v>0.6476440773418135</v>
       </c>
+      <c r="ET13">
+        <v>0.6476440773418135</v>
+      </c>
     </row>
-    <row r="14" spans="1:149">
+    <row r="14" spans="1:150">
       <c r="A14" s="1">
         <v>30316</v>
       </c>
@@ -5769,8 +5802,11 @@
       <c r="ES14">
         <v>-0.4989275389350234</v>
       </c>
+      <c r="ET14">
+        <v>-0.4989275389350234</v>
+      </c>
     </row>
-    <row r="15" spans="1:149">
+    <row r="15" spans="1:150">
       <c r="A15" s="1">
         <v>30681</v>
       </c>
@@ -6218,8 +6254,11 @@
       <c r="ES15">
         <v>1.466797881812631</v>
       </c>
+      <c r="ET15">
+        <v>1.466797881812631</v>
+      </c>
     </row>
-    <row r="16" spans="1:149">
+    <row r="16" spans="1:150">
       <c r="A16" s="1">
         <v>31047</v>
       </c>
@@ -6667,8 +6706,11 @@
       <c r="ES16">
         <v>2.900424903011278</v>
       </c>
+      <c r="ET16">
+        <v>2.900424903011278</v>
+      </c>
     </row>
-    <row r="17" spans="1:149">
+    <row r="17" spans="1:150">
       <c r="A17" s="1">
         <v>31412</v>
       </c>
@@ -7116,8 +7158,11 @@
       <c r="ES17">
         <v>2.603231597845612</v>
       </c>
+      <c r="ET17">
+        <v>2.603231597845612</v>
+      </c>
     </row>
-    <row r="18" spans="1:149">
+    <row r="18" spans="1:150">
       <c r="A18" s="1">
         <v>31777</v>
       </c>
@@ -7565,8 +7610,11 @@
       <c r="ES18">
         <v>2.279090113735771</v>
       </c>
+      <c r="ET18">
+        <v>2.279090113735771</v>
+      </c>
     </row>
-    <row r="19" spans="1:149">
+    <row r="19" spans="1:150">
       <c r="A19" s="1">
         <v>32142</v>
       </c>
@@ -8014,8 +8062,11 @@
       <c r="ES19">
         <v>1.278816132757377</v>
       </c>
+      <c r="ET19">
+        <v>1.278816132757377</v>
+      </c>
     </row>
-    <row r="20" spans="1:149">
+    <row r="20" spans="1:150">
       <c r="A20" s="1">
         <v>32508</v>
       </c>
@@ -8460,8 +8511,11 @@
       <c r="ES20">
         <v>3.441722972973005</v>
       </c>
+      <c r="ET20">
+        <v>3.441722972973005</v>
+      </c>
     </row>
-    <row r="21" spans="1:149">
+    <row r="21" spans="1:150">
       <c r="A21" s="1">
         <v>32873</v>
       </c>
@@ -8894,8 +8948,11 @@
       <c r="ES21">
         <v>4.033476219636656</v>
       </c>
+      <c r="ET21">
+        <v>4.033476219636656</v>
+      </c>
     </row>
-    <row r="22" spans="1:149">
+    <row r="22" spans="1:150">
       <c r="A22" s="1">
         <v>33238</v>
       </c>
@@ -9316,8 +9373,11 @@
       <c r="ES22">
         <v>5.482086096613403</v>
       </c>
+      <c r="ET22">
+        <v>5.482086096613403</v>
+      </c>
     </row>
-    <row r="23" spans="1:149">
+    <row r="23" spans="1:150">
       <c r="A23" s="1">
         <v>33603</v>
       </c>
@@ -9726,8 +9786,11 @@
       <c r="ES23">
         <v>5.241851727627922</v>
       </c>
+      <c r="ET23">
+        <v>5.241851727627922</v>
+      </c>
     </row>
-    <row r="24" spans="1:149">
+    <row r="24" spans="1:150">
       <c r="A24" s="1">
         <v>33969</v>
       </c>
@@ -10124,8 +10187,11 @@
       <c r="ES24">
         <v>1.590049821561079</v>
       </c>
+      <c r="ET24">
+        <v>1.590049821561079</v>
+      </c>
     </row>
-    <row r="25" spans="1:149">
+    <row r="25" spans="1:150">
       <c r="A25" s="1">
         <v>34334</v>
       </c>
@@ -10510,8 +10576,11 @@
       <c r="ES25">
         <v>-0.9947480087649119</v>
       </c>
+      <c r="ET25">
+        <v>-0.9947480087649119</v>
+      </c>
     </row>
-    <row r="26" spans="1:149">
+    <row r="26" spans="1:150">
       <c r="A26" s="1">
         <v>34699</v>
       </c>
@@ -10884,8 +10953,11 @@
       <c r="ES26">
         <v>2.662919374670669</v>
       </c>
+      <c r="ET26">
+        <v>2.662919374670669</v>
+      </c>
     </row>
-    <row r="27" spans="1:149">
+    <row r="27" spans="1:150">
       <c r="A27" s="1">
         <v>35064</v>
       </c>
@@ -11246,8 +11318,11 @@
       <c r="ES27">
         <v>1.584368476884657</v>
       </c>
+      <c r="ET27">
+        <v>1.584368476884657</v>
+      </c>
     </row>
-    <row r="28" spans="1:149">
+    <row r="28" spans="1:150">
       <c r="A28" s="1">
         <v>35430</v>
       </c>
@@ -11596,8 +11671,11 @@
       <c r="ES28">
         <v>1.064474836623308</v>
       </c>
+      <c r="ET28">
+        <v>1.064474836623308</v>
+      </c>
     </row>
-    <row r="29" spans="1:149">
+    <row r="29" spans="1:150">
       <c r="A29" s="1">
         <v>35795</v>
       </c>
@@ -11934,8 +12012,11 @@
       <c r="ES29">
         <v>1.929871341910538</v>
       </c>
+      <c r="ET29">
+        <v>1.929871341910538</v>
+      </c>
     </row>
-    <row r="30" spans="1:149">
+    <row r="30" spans="1:150">
       <c r="A30" s="1">
         <v>36160</v>
       </c>
@@ -12260,8 +12341,11 @@
       <c r="ES30">
         <v>1.886792452830188</v>
       </c>
+      <c r="ET30">
+        <v>1.886792452830188</v>
+      </c>
     </row>
-    <row r="31" spans="1:149">
+    <row r="31" spans="1:150">
       <c r="A31" s="1">
         <v>36525</v>
       </c>
@@ -12574,8 +12658,11 @@
       <c r="ES31">
         <v>1.983439245137664</v>
       </c>
+      <c r="ET31">
+        <v>1.983439245137664</v>
+      </c>
     </row>
-    <row r="32" spans="1:149">
+    <row r="32" spans="1:150">
       <c r="A32" s="1">
         <v>36891</v>
       </c>
@@ -12876,8 +12963,11 @@
       <c r="ES32">
         <v>3.109264853977822</v>
       </c>
+      <c r="ET32">
+        <v>3.109264853977822</v>
+      </c>
     </row>
-    <row r="33" spans="1:149">
+    <row r="33" spans="1:150">
       <c r="A33" s="1">
         <v>37256</v>
       </c>
@@ -13166,8 +13256,11 @@
       <c r="ES33">
         <v>1.767183494078894</v>
       </c>
+      <c r="ET33">
+        <v>1.767183494078894</v>
+      </c>
     </row>
-    <row r="34" spans="1:149">
+    <row r="34" spans="1:150">
       <c r="A34" s="1">
         <v>37621</v>
       </c>
@@ -13444,8 +13537,11 @@
       <c r="ES34">
         <v>-0.2039408571514301</v>
       </c>
+      <c r="ET34">
+        <v>-0.2039408571514301</v>
+      </c>
     </row>
-    <row r="35" spans="1:149">
+    <row r="35" spans="1:150">
       <c r="A35" s="1">
         <v>37986</v>
       </c>
@@ -13710,8 +13806,11 @@
       <c r="ES35">
         <v>-0.5379413974455294</v>
       </c>
+      <c r="ET35">
+        <v>-0.5379413974455294</v>
+      </c>
     </row>
-    <row r="36" spans="1:149">
+    <row r="36" spans="1:150">
       <c r="A36" s="1">
         <v>38352</v>
       </c>
@@ -13964,8 +14063,11 @@
       <c r="ES36">
         <v>0.6949480299734079</v>
       </c>
+      <c r="ET36">
+        <v>0.6949480299734079</v>
+      </c>
     </row>
-    <row r="37" spans="1:149">
+    <row r="37" spans="1:150">
       <c r="A37" s="1">
         <v>38717</v>
       </c>
@@ -14206,8 +14308,11 @@
       <c r="ES37">
         <v>1.056232371121646</v>
       </c>
+      <c r="ET37">
+        <v>1.056232371121646</v>
+      </c>
     </row>
-    <row r="38" spans="1:149">
+    <row r="38" spans="1:150">
       <c r="A38" s="1">
         <v>39082</v>
       </c>
@@ -14436,8 +14541,11 @@
       <c r="ES38">
         <v>4.038244551339143</v>
       </c>
+      <c r="ET38">
+        <v>4.038244551339143</v>
+      </c>
     </row>
-    <row r="39" spans="1:149">
+    <row r="39" spans="1:150">
       <c r="A39" s="1">
         <v>39447</v>
       </c>
@@ -14654,8 +14762,11 @@
       <c r="ES39">
         <v>2.996746389634097</v>
       </c>
+      <c r="ET39">
+        <v>2.996746389634097</v>
+      </c>
     </row>
-    <row r="40" spans="1:149">
+    <row r="40" spans="1:150">
       <c r="A40" s="1">
         <v>39813</v>
       </c>
@@ -14860,8 +14971,11 @@
       <c r="ES40">
         <v>0.6207049434715506</v>
       </c>
+      <c r="ET40">
+        <v>0.6207049434715506</v>
+      </c>
     </row>
-    <row r="41" spans="1:149">
+    <row r="41" spans="1:150">
       <c r="A41" s="1">
         <v>40178</v>
       </c>
@@ -15054,8 +15168,11 @@
       <c r="ES41">
         <v>-5.499559374311536</v>
       </c>
+      <c r="ET41">
+        <v>-5.499559374311536</v>
+      </c>
     </row>
-    <row r="42" spans="1:149">
+    <row r="42" spans="1:150">
       <c r="A42" s="1">
         <v>40543</v>
       </c>
@@ -15236,8 +15353,11 @@
       <c r="ES42">
         <v>4.006994025936184</v>
       </c>
+      <c r="ET42">
+        <v>4.006994025936184</v>
+      </c>
     </row>
-    <row r="43" spans="1:149">
+    <row r="43" spans="1:150">
       <c r="A43" s="1">
         <v>40908</v>
       </c>
@@ -15406,8 +15526,11 @@
       <c r="ES43">
         <v>3.833006444382181</v>
       </c>
+      <c r="ET43">
+        <v>3.833006444382181</v>
+      </c>
     </row>
-    <row r="44" spans="1:149">
+    <row r="44" spans="1:150">
       <c r="A44" s="1">
         <v>41274</v>
       </c>
@@ -15564,8 +15687,11 @@
       <c r="ES44">
         <v>0.6530303848022223</v>
       </c>
+      <c r="ET44">
+        <v>0.6530303848022223</v>
+      </c>
     </row>
-    <row r="45" spans="1:149">
+    <row r="45" spans="1:150">
       <c r="A45" s="1">
         <v>41639</v>
       </c>
@@ -15710,8 +15836,11 @@
       <c r="ES45">
         <v>0.5093833780160928</v>
       </c>
+      <c r="ET45">
+        <v>0.5093833780160928</v>
+      </c>
     </row>
-    <row r="46" spans="1:149">
+    <row r="46" spans="1:150">
       <c r="A46" s="1">
         <v>42004</v>
       </c>
@@ -15844,8 +15973,11 @@
       <c r="ES46">
         <v>2.173913043478248</v>
       </c>
+      <c r="ET46">
+        <v>2.173913043478248</v>
+      </c>
     </row>
-    <row r="47" spans="1:149">
+    <row r="47" spans="1:150">
       <c r="A47" s="1">
         <v>42369</v>
       </c>
@@ -15966,8 +16098,11 @@
       <c r="ES47">
         <v>1.417569507897132</v>
       </c>
+      <c r="ET47">
+        <v>1.417569507897132</v>
+      </c>
     </row>
-    <row r="48" spans="1:149">
+    <row r="48" spans="1:150">
       <c r="A48" s="1">
         <v>42735</v>
       </c>
@@ -16076,8 +16211,11 @@
       <c r="ES48">
         <v>2.136532125205948</v>
       </c>
+      <c r="ET48">
+        <v>2.136532125205948</v>
+      </c>
     </row>
-    <row r="49" spans="1:149">
+    <row r="49" spans="1:150">
       <c r="A49" s="1">
         <v>43100</v>
       </c>
@@ -16174,8 +16312,11 @@
       <c r="ES49">
         <v>3.094914058168241</v>
       </c>
+      <c r="ET49">
+        <v>3.094914058168241</v>
+      </c>
     </row>
-    <row r="50" spans="1:149">
+    <row r="50" spans="1:150">
       <c r="A50" s="1">
         <v>43465</v>
       </c>
@@ -16260,8 +16401,11 @@
       <c r="ES50">
         <v>1.151420329536013</v>
       </c>
+      <c r="ET50">
+        <v>1.151420329536013</v>
+      </c>
     </row>
-    <row r="51" spans="1:149">
+    <row r="51" spans="1:150">
       <c r="A51" s="1">
         <v>43830</v>
       </c>
@@ -16334,8 +16478,11 @@
       <c r="ES51">
         <v>1.010223070788152</v>
       </c>
+      <c r="ET51">
+        <v>1.010223070788152</v>
+      </c>
     </row>
-    <row r="52" spans="1:149">
+    <row r="52" spans="1:150">
       <c r="A52" s="1">
         <v>44196</v>
       </c>
@@ -16396,8 +16543,11 @@
       <c r="ES52">
         <v>-4.486182557722218</v>
       </c>
+      <c r="ET52">
+        <v>-4.486182557722218</v>
+      </c>
     </row>
-    <row r="53" spans="1:149">
+    <row r="53" spans="1:150">
       <c r="A53" s="1">
         <v>44561</v>
       </c>
@@ -16446,8 +16596,11 @@
       <c r="ES53">
         <v>3.865230460921842</v>
       </c>
+      <c r="ET53">
+        <v>3.865230460921842</v>
+      </c>
     </row>
-    <row r="54" spans="1:149">
+    <row r="54" spans="1:150">
       <c r="A54" s="1">
         <v>44926</v>
       </c>
@@ -16484,8 +16637,11 @@
       <c r="ES54">
         <v>1.886018860188643</v>
       </c>
+      <c r="ET54">
+        <v>1.886018860188643</v>
+      </c>
     </row>
-    <row r="55" spans="1:149">
+    <row r="55" spans="1:150">
       <c r="A55" s="1">
         <v>45291</v>
       </c>
@@ -16510,8 +16666,11 @@
       <c r="ES55">
         <v>-0.6770031956444766</v>
       </c>
+      <c r="ET55">
+        <v>-0.6770031956444766</v>
+      </c>
     </row>
-    <row r="56" spans="1:149">
+    <row r="56" spans="1:150">
       <c r="A56" s="1">
         <v>45657</v>
       </c>
@@ -16524,8 +16683,11 @@
       <c r="ES56">
         <v>-0.4695059462808793</v>
       </c>
+      <c r="ET56">
+        <v>-0.4695059462808793</v>
+      </c>
     </row>
-    <row r="57" spans="1:149">
+    <row r="57" spans="1:150">
       <c r="A57" s="1">
         <v>46022</v>
       </c>

--- a/0_0_Data/2_Processed_Data/1_combined_GDP_series/yoy_combined_GDP_data.xlsx
+++ b/0_0_Data/2_Processed_Data/1_combined_GDP_series/yoy_combined_GDP_data.xlsx
@@ -11,6 +11,179 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+  <si>
+    <t>1970Q4</t>
+  </si>
+  <si>
+    <t>1971Q4</t>
+  </si>
+  <si>
+    <t>1972Q4</t>
+  </si>
+  <si>
+    <t>1973Q4</t>
+  </si>
+  <si>
+    <t>1974Q4</t>
+  </si>
+  <si>
+    <t>1975Q4</t>
+  </si>
+  <si>
+    <t>1976Q4</t>
+  </si>
+  <si>
+    <t>1977Q4</t>
+  </si>
+  <si>
+    <t>1978Q4</t>
+  </si>
+  <si>
+    <t>1979Q4</t>
+  </si>
+  <si>
+    <t>1980Q4</t>
+  </si>
+  <si>
+    <t>1981Q4</t>
+  </si>
+  <si>
+    <t>1982Q4</t>
+  </si>
+  <si>
+    <t>1983Q4</t>
+  </si>
+  <si>
+    <t>1984Q4</t>
+  </si>
+  <si>
+    <t>1985Q4</t>
+  </si>
+  <si>
+    <t>1986Q4</t>
+  </si>
+  <si>
+    <t>1987Q4</t>
+  </si>
+  <si>
+    <t>1988Q4</t>
+  </si>
+  <si>
+    <t>1989Q4</t>
+  </si>
+  <si>
+    <t>1990Q4</t>
+  </si>
+  <si>
+    <t>1991Q4</t>
+  </si>
+  <si>
+    <t>1992Q4</t>
+  </si>
+  <si>
+    <t>1993Q4</t>
+  </si>
+  <si>
+    <t>1994Q4</t>
+  </si>
+  <si>
+    <t>1995Q4</t>
+  </si>
+  <si>
+    <t>1996Q4</t>
+  </si>
+  <si>
+    <t>1997Q4</t>
+  </si>
+  <si>
+    <t>1998Q4</t>
+  </si>
+  <si>
+    <t>1999Q4</t>
+  </si>
+  <si>
+    <t>2000Q4</t>
+  </si>
+  <si>
+    <t>2001Q4</t>
+  </si>
+  <si>
+    <t>2002Q4</t>
+  </si>
+  <si>
+    <t>2003Q4</t>
+  </si>
+  <si>
+    <t>2004Q4</t>
+  </si>
+  <si>
+    <t>2005Q4</t>
+  </si>
+  <si>
+    <t>2006Q4</t>
+  </si>
+  <si>
+    <t>2007Q4</t>
+  </si>
+  <si>
+    <t>2008Q4</t>
+  </si>
+  <si>
+    <t>2009Q4</t>
+  </si>
+  <si>
+    <t>2010Q4</t>
+  </si>
+  <si>
+    <t>2011Q4</t>
+  </si>
+  <si>
+    <t>2012Q4</t>
+  </si>
+  <si>
+    <t>2013Q4</t>
+  </si>
+  <si>
+    <t>2014Q4</t>
+  </si>
+  <si>
+    <t>2015Q4</t>
+  </si>
+  <si>
+    <t>2016Q4</t>
+  </si>
+  <si>
+    <t>2017Q4</t>
+  </si>
+  <si>
+    <t>2018Q4</t>
+  </si>
+  <si>
+    <t>2019Q4</t>
+  </si>
+  <si>
+    <t>2020Q4</t>
+  </si>
+  <si>
+    <t>2021Q4</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q4</t>
+  </si>
+  <si>
+    <t>2025Q4</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -70,9 +243,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -825,18 +1001,18 @@
       </c>
     </row>
     <row r="2" spans="1:150">
-      <c r="A2" s="1">
-        <v>25933</v>
+      <c r="A2" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:150">
-      <c r="A3" s="1">
-        <v>26298</v>
+      <c r="A3" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:150">
-      <c r="A4" s="1">
-        <v>26664</v>
+      <c r="A4" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B4">
         <v>4.249909189974566</v>
@@ -1287,8 +1463,8 @@
       </c>
     </row>
     <row r="5" spans="1:150">
-      <c r="A5" s="1">
-        <v>27029</v>
+      <c r="A5" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B5">
         <v>4.988385598141676</v>
@@ -1739,8 +1915,8 @@
       </c>
     </row>
     <row r="6" spans="1:150">
-      <c r="A6" s="1">
-        <v>27394</v>
+      <c r="A6" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0.9845677305160727</v>
@@ -2191,8 +2367,8 @@
       </c>
     </row>
     <row r="7" spans="1:150">
-      <c r="A7" s="1">
-        <v>27759</v>
+      <c r="A7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B7">
         <v>-0.8708988333242074</v>
@@ -2643,8 +2819,8 @@
       </c>
     </row>
     <row r="8" spans="1:150">
-      <c r="A8" s="1">
-        <v>28125</v>
+      <c r="A8" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B8">
         <v>4.43142888716983</v>
@@ -3095,8 +3271,8 @@
       </c>
     </row>
     <row r="9" spans="1:150">
-      <c r="A9" s="1">
-        <v>28490</v>
+      <c r="A9" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B9">
         <v>3.518518518518521</v>
@@ -3547,8 +3723,8 @@
       </c>
     </row>
     <row r="10" spans="1:150">
-      <c r="A10" s="1">
-        <v>28855</v>
+      <c r="A10" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B10">
         <v>3.102478916432405</v>
@@ -3999,8 +4175,8 @@
       </c>
     </row>
     <row r="11" spans="1:150">
-      <c r="A11" s="1">
-        <v>29220</v>
+      <c r="A11" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B11">
         <v>4.293079516161025</v>
@@ -4451,8 +4627,8 @@
       </c>
     </row>
     <row r="12" spans="1:150">
-      <c r="A12" s="1">
-        <v>29586</v>
+      <c r="A12" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1.283391957410407</v>
@@ -4903,8 +5079,8 @@
       </c>
     </row>
     <row r="13" spans="1:150">
-      <c r="A13" s="1">
-        <v>29951</v>
+      <c r="A13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B13">
         <v>0.6476440773418579</v>
@@ -5355,8 +5531,8 @@
       </c>
     </row>
     <row r="14" spans="1:150">
-      <c r="A14" s="1">
-        <v>30316</v>
+      <c r="A14" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B14">
         <v>-0.4989275389350234</v>
@@ -5807,8 +5983,8 @@
       </c>
     </row>
     <row r="15" spans="1:150">
-      <c r="A15" s="1">
-        <v>30681</v>
+      <c r="A15" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1.466797881812631</v>
@@ -6259,8 +6435,8 @@
       </c>
     </row>
     <row r="16" spans="1:150">
-      <c r="A16" s="1">
-        <v>31047</v>
+      <c r="A16" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B16">
         <v>2.900424903011278</v>
@@ -6711,8 +6887,8 @@
       </c>
     </row>
     <row r="17" spans="1:150">
-      <c r="A17" s="1">
-        <v>31412</v>
+      <c r="A17" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B17">
         <v>2.603231597845612</v>
@@ -7163,8 +7339,8 @@
       </c>
     </row>
     <row r="18" spans="1:150">
-      <c r="A18" s="1">
-        <v>31777</v>
+      <c r="A18" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B18">
         <v>2.279090113735793</v>
@@ -7615,8 +7791,8 @@
       </c>
     </row>
     <row r="19" spans="1:150">
-      <c r="A19" s="1">
-        <v>32142</v>
+      <c r="A19" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B19">
         <v>1.278816132757377</v>
@@ -8067,8 +8243,8 @@
       </c>
     </row>
     <row r="20" spans="1:150">
-      <c r="A20" s="1">
-        <v>32508</v>
+      <c r="A20" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="C20">
         <v>3.44172297297296</v>
@@ -8516,8 +8692,8 @@
       </c>
     </row>
     <row r="21" spans="1:150">
-      <c r="A21" s="1">
-        <v>32873</v>
+      <c r="A21" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G21">
         <v>4.033476219636656</v>
@@ -8953,8 +9129,8 @@
       </c>
     </row>
     <row r="22" spans="1:150">
-      <c r="A22" s="1">
-        <v>33238</v>
+      <c r="A22" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K22">
         <v>5.482086096613448</v>
@@ -9378,8 +9554,8 @@
       </c>
     </row>
     <row r="23" spans="1:150">
-      <c r="A23" s="1">
-        <v>33603</v>
+      <c r="A23" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="O23">
         <v>6.118004442050284</v>
@@ -9791,8 +9967,8 @@
       </c>
     </row>
     <row r="24" spans="1:150">
-      <c r="A24" s="1">
-        <v>33969</v>
+      <c r="A24" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="S24">
         <v>1.839868480884266</v>
@@ -10192,8 +10368,8 @@
       </c>
     </row>
     <row r="25" spans="1:150">
-      <c r="A25" s="1">
-        <v>34334</v>
+      <c r="A25" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="W25">
         <v>-1.202129486518955</v>
@@ -10581,8 +10757,8 @@
       </c>
     </row>
     <row r="26" spans="1:150">
-      <c r="A26" s="1">
-        <v>34699</v>
+      <c r="A26" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="AA26">
         <v>2.972362245784832</v>
@@ -10958,8 +11134,8 @@
       </c>
     </row>
     <row r="27" spans="1:150">
-      <c r="A27" s="1">
-        <v>35064</v>
+      <c r="A27" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="AE27">
         <v>2.106684672518577</v>
@@ -11323,8 +11499,8 @@
       </c>
     </row>
     <row r="28" spans="1:150">
-      <c r="A28" s="1">
-        <v>35430</v>
+      <c r="A28" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="AI28">
         <v>1.376253018824225</v>
@@ -11676,8 +11852,8 @@
       </c>
     </row>
     <row r="29" spans="1:150">
-      <c r="A29" s="1">
-        <v>35795</v>
+      <c r="A29" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="AM29">
         <v>2.308221196346105</v>
@@ -12017,8 +12193,8 @@
       </c>
     </row>
     <row r="30" spans="1:150">
-      <c r="A30" s="1">
-        <v>36160</v>
+      <c r="A30" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="AQ30">
         <v>2.541062801932337</v>
@@ -12346,8 +12522,8 @@
       </c>
     </row>
     <row r="31" spans="1:150">
-      <c r="A31" s="1">
-        <v>36525</v>
+      <c r="A31" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="AU31">
         <v>1.367676015113628</v>
@@ -12663,8 +12839,8 @@
       </c>
     </row>
     <row r="32" spans="1:150">
-      <c r="A32" s="1">
-        <v>36891</v>
+      <c r="A32" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="AY32">
         <v>3.124934328044526</v>
@@ -12968,8 +13144,8 @@
       </c>
     </row>
     <row r="33" spans="1:150">
-      <c r="A33" s="1">
-        <v>37256</v>
+      <c r="A33" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="BC33">
         <v>0.7423893656915315</v>
@@ -13261,8 +13437,8 @@
       </c>
     </row>
     <row r="34" spans="1:150">
-      <c r="A34" s="1">
-        <v>37621</v>
+      <c r="A34" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="BG34">
         <v>0.2243622063123674</v>
@@ -13542,8 +13718,8 @@
       </c>
     </row>
     <row r="35" spans="1:150">
-      <c r="A35" s="1">
-        <v>37986</v>
+      <c r="A35" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="BK35">
         <v>-0.116923848952466</v>
@@ -13811,8 +13987,8 @@
       </c>
     </row>
     <row r="36" spans="1:150">
-      <c r="A36" s="1">
-        <v>38352</v>
+      <c r="A36" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="BO36">
         <v>1.025896464455855</v>
@@ -14068,8 +14244,8 @@
       </c>
     </row>
     <row r="37" spans="1:150">
-      <c r="A37" s="1">
-        <v>38717</v>
+      <c r="A37" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="BS37">
         <v>1.09157509157507</v>
@@ -14313,8 +14489,8 @@
       </c>
     </row>
     <row r="38" spans="1:150">
-      <c r="A38" s="1">
-        <v>39082</v>
+      <c r="A38" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="BW38">
         <v>2.893453954548764</v>
@@ -14546,8 +14722,8 @@
       </c>
     </row>
     <row r="39" spans="1:150">
-      <c r="A39" s="1">
-        <v>39447</v>
+      <c r="A39" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="CA39">
         <v>2.623005005194057</v>
@@ -14767,8 +14943,8 @@
       </c>
     </row>
     <row r="40" spans="1:150">
-      <c r="A40" s="1">
-        <v>39813</v>
+      <c r="A40" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="CE40">
         <v>0.9806848717300864</v>
@@ -14976,8 +15152,8 @@
       </c>
     </row>
     <row r="41" spans="1:150">
-      <c r="A41" s="1">
-        <v>40178</v>
+      <c r="A41" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="CI41">
         <v>-4.922909239537676</v>
@@ -15173,8 +15349,8 @@
       </c>
     </row>
     <row r="42" spans="1:150">
-      <c r="A42" s="1">
-        <v>40543</v>
+      <c r="A42" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="CM42">
         <v>3.506518222475963</v>
@@ -15358,8 +15534,8 @@
       </c>
     </row>
     <row r="43" spans="1:150">
-      <c r="A43" s="1">
-        <v>40908</v>
+      <c r="A43" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="CQ43">
         <v>3.057960105382018</v>
@@ -15531,8 +15707,8 @@
       </c>
     </row>
     <row r="44" spans="1:150">
-      <c r="A44" s="1">
-        <v>41274</v>
+      <c r="A44" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="CU44">
         <v>0.8676691046200169</v>
@@ -15692,8 +15868,8 @@
       </c>
     </row>
     <row r="45" spans="1:150">
-      <c r="A45" s="1">
-        <v>41639</v>
+      <c r="A45" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="CY45">
         <v>0.5328956244097904</v>
@@ -15841,8 +16017,8 @@
       </c>
     </row>
     <row r="46" spans="1:150">
-      <c r="A46" s="1">
-        <v>42004</v>
+      <c r="A46" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="DC46">
         <v>1.606599045632207</v>
@@ -15978,8 +16154,8 @@
       </c>
     </row>
     <row r="47" spans="1:150">
-      <c r="A47" s="1">
-        <v>42369</v>
+      <c r="A47" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="DG47">
         <v>1.449991761410452</v>
@@ -16103,8 +16279,8 @@
       </c>
     </row>
     <row r="48" spans="1:150">
-      <c r="A48" s="1">
-        <v>42735</v>
+      <c r="A48" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="DK48">
         <v>1.77402567364402</v>
@@ -16216,8 +16392,8 @@
       </c>
     </row>
     <row r="49" spans="1:150">
-      <c r="A49" s="1">
-        <v>43100</v>
+      <c r="A49" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="DO49">
         <v>2.513972801122333</v>
@@ -16317,8 +16493,8 @@
       </c>
     </row>
     <row r="50" spans="1:150">
-      <c r="A50" s="1">
-        <v>43465</v>
+      <c r="A50" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="DS50">
         <v>1.452268482917729</v>
@@ -16406,8 +16582,8 @@
       </c>
     </row>
     <row r="51" spans="1:150">
-      <c r="A51" s="1">
-        <v>43830</v>
+      <c r="A51" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="DW51">
         <v>0.6010095081582234</v>
@@ -16483,8 +16659,8 @@
       </c>
     </row>
     <row r="52" spans="1:150">
-      <c r="A52" s="1">
-        <v>44196</v>
+      <c r="A52" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="EA52">
         <v>-5.264756741599285</v>
@@ -16548,8 +16724,8 @@
       </c>
     </row>
     <row r="53" spans="1:150">
-      <c r="A53" s="1">
-        <v>44561</v>
+      <c r="A53" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="EE53">
         <v>2.869314008715662</v>
@@ -16601,8 +16777,8 @@
       </c>
     </row>
     <row r="54" spans="1:150">
-      <c r="A54" s="1">
-        <v>44926</v>
+      <c r="A54" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="EI54">
         <v>1.858296049049546</v>
@@ -16642,8 +16818,8 @@
       </c>
     </row>
     <row r="55" spans="1:150">
-      <c r="A55" s="1">
-        <v>45291</v>
+      <c r="A55" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="EM55">
         <v>-0.1110802554845747</v>
@@ -16671,8 +16847,8 @@
       </c>
     </row>
     <row r="56" spans="1:150">
-      <c r="A56" s="1">
-        <v>45657</v>
+      <c r="A56" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="EQ56">
         <v>-0.2026849798507313</v>
@@ -16688,8 +16864,8 @@
       </c>
     </row>
     <row r="57" spans="1:150">
-      <c r="A57" s="1">
-        <v>46022</v>
+      <c r="A57" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/2_Processed_Data/1_combined_GDP_series/yoy_combined_GDP_data.xlsx
+++ b/0_0_Data/2_Processed_Data/1_combined_GDP_series/yoy_combined_GDP_data.xlsx
@@ -11,179 +11,6 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
-  <si>
-    <t>1970Q4</t>
-  </si>
-  <si>
-    <t>1971Q4</t>
-  </si>
-  <si>
-    <t>1972Q4</t>
-  </si>
-  <si>
-    <t>1973Q4</t>
-  </si>
-  <si>
-    <t>1974Q4</t>
-  </si>
-  <si>
-    <t>1975Q4</t>
-  </si>
-  <si>
-    <t>1976Q4</t>
-  </si>
-  <si>
-    <t>1977Q4</t>
-  </si>
-  <si>
-    <t>1978Q4</t>
-  </si>
-  <si>
-    <t>1979Q4</t>
-  </si>
-  <si>
-    <t>1980Q4</t>
-  </si>
-  <si>
-    <t>1981Q4</t>
-  </si>
-  <si>
-    <t>1982Q4</t>
-  </si>
-  <si>
-    <t>1983Q4</t>
-  </si>
-  <si>
-    <t>1984Q4</t>
-  </si>
-  <si>
-    <t>1985Q4</t>
-  </si>
-  <si>
-    <t>1986Q4</t>
-  </si>
-  <si>
-    <t>1987Q4</t>
-  </si>
-  <si>
-    <t>1988Q4</t>
-  </si>
-  <si>
-    <t>1989Q4</t>
-  </si>
-  <si>
-    <t>1990Q4</t>
-  </si>
-  <si>
-    <t>1991Q4</t>
-  </si>
-  <si>
-    <t>1992Q4</t>
-  </si>
-  <si>
-    <t>1993Q4</t>
-  </si>
-  <si>
-    <t>1994Q4</t>
-  </si>
-  <si>
-    <t>1995Q4</t>
-  </si>
-  <si>
-    <t>1996Q4</t>
-  </si>
-  <si>
-    <t>1997Q4</t>
-  </si>
-  <si>
-    <t>1998Q4</t>
-  </si>
-  <si>
-    <t>1999Q4</t>
-  </si>
-  <si>
-    <t>2000Q4</t>
-  </si>
-  <si>
-    <t>2001Q4</t>
-  </si>
-  <si>
-    <t>2002Q4</t>
-  </si>
-  <si>
-    <t>2003Q4</t>
-  </si>
-  <si>
-    <t>2004Q4</t>
-  </si>
-  <si>
-    <t>2005Q4</t>
-  </si>
-  <si>
-    <t>2006Q4</t>
-  </si>
-  <si>
-    <t>2007Q4</t>
-  </si>
-  <si>
-    <t>2008Q4</t>
-  </si>
-  <si>
-    <t>2009Q4</t>
-  </si>
-  <si>
-    <t>2010Q4</t>
-  </si>
-  <si>
-    <t>2011Q4</t>
-  </si>
-  <si>
-    <t>2012Q4</t>
-  </si>
-  <si>
-    <t>2013Q4</t>
-  </si>
-  <si>
-    <t>2014Q4</t>
-  </si>
-  <si>
-    <t>2015Q4</t>
-  </si>
-  <si>
-    <t>2016Q4</t>
-  </si>
-  <si>
-    <t>2017Q4</t>
-  </si>
-  <si>
-    <t>2018Q4</t>
-  </si>
-  <si>
-    <t>2019Q4</t>
-  </si>
-  <si>
-    <t>2020Q4</t>
-  </si>
-  <si>
-    <t>2021Q4</t>
-  </si>
-  <si>
-    <t>2022Q4</t>
-  </si>
-  <si>
-    <t>2023Q4</t>
-  </si>
-  <si>
-    <t>2024Q4</t>
-  </si>
-  <si>
-    <t>2025Q4</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -243,12 +70,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1001,18 +825,18 @@
       </c>
     </row>
     <row r="2" spans="1:150">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="A2" s="1">
+        <v>25933</v>
       </c>
     </row>
     <row r="3" spans="1:150">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
+      <c r="A3" s="1">
+        <v>26298</v>
       </c>
     </row>
     <row r="4" spans="1:150">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
+      <c r="A4" s="1">
+        <v>26664</v>
       </c>
       <c r="B4">
         <v>4.249909189974566</v>
@@ -1463,8 +1287,8 @@
       </c>
     </row>
     <row r="5" spans="1:150">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
+      <c r="A5" s="1">
+        <v>27029</v>
       </c>
       <c r="B5">
         <v>4.988385598141676</v>
@@ -1915,8 +1739,8 @@
       </c>
     </row>
     <row r="6" spans="1:150">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
+      <c r="A6" s="1">
+        <v>27394</v>
       </c>
       <c r="B6">
         <v>0.9845677305160727</v>
@@ -2367,8 +2191,8 @@
       </c>
     </row>
     <row r="7" spans="1:150">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
+      <c r="A7" s="1">
+        <v>27759</v>
       </c>
       <c r="B7">
         <v>-0.8708988333242074</v>
@@ -2819,8 +2643,8 @@
       </c>
     </row>
     <row r="8" spans="1:150">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
+      <c r="A8" s="1">
+        <v>28125</v>
       </c>
       <c r="B8">
         <v>4.43142888716983</v>
@@ -3271,8 +3095,8 @@
       </c>
     </row>
     <row r="9" spans="1:150">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
+      <c r="A9" s="1">
+        <v>28490</v>
       </c>
       <c r="B9">
         <v>3.518518518518521</v>
@@ -3723,8 +3547,8 @@
       </c>
     </row>
     <row r="10" spans="1:150">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
+      <c r="A10" s="1">
+        <v>28855</v>
       </c>
       <c r="B10">
         <v>3.102478916432405</v>
@@ -4175,8 +3999,8 @@
       </c>
     </row>
     <row r="11" spans="1:150">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
+      <c r="A11" s="1">
+        <v>29220</v>
       </c>
       <c r="B11">
         <v>4.293079516161025</v>
@@ -4627,8 +4451,8 @@
       </c>
     </row>
     <row r="12" spans="1:150">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
+      <c r="A12" s="1">
+        <v>29586</v>
       </c>
       <c r="B12">
         <v>1.283391957410407</v>
@@ -5079,8 +4903,8 @@
       </c>
     </row>
     <row r="13" spans="1:150">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
+      <c r="A13" s="1">
+        <v>29951</v>
       </c>
       <c r="B13">
         <v>0.6476440773418579</v>
@@ -5531,8 +5355,8 @@
       </c>
     </row>
     <row r="14" spans="1:150">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
+      <c r="A14" s="1">
+        <v>30316</v>
       </c>
       <c r="B14">
         <v>-0.4989275389350234</v>
@@ -5983,8 +5807,8 @@
       </c>
     </row>
     <row r="15" spans="1:150">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
+      <c r="A15" s="1">
+        <v>30681</v>
       </c>
       <c r="B15">
         <v>1.466797881812631</v>
@@ -6435,8 +6259,8 @@
       </c>
     </row>
     <row r="16" spans="1:150">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
+      <c r="A16" s="1">
+        <v>31047</v>
       </c>
       <c r="B16">
         <v>2.900424903011278</v>
@@ -6887,8 +6711,8 @@
       </c>
     </row>
     <row r="17" spans="1:150">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
+      <c r="A17" s="1">
+        <v>31412</v>
       </c>
       <c r="B17">
         <v>2.603231597845612</v>
@@ -7339,8 +7163,8 @@
       </c>
     </row>
     <row r="18" spans="1:150">
-      <c r="A18" s="2" t="s">
-        <v>16</v>
+      <c r="A18" s="1">
+        <v>31777</v>
       </c>
       <c r="B18">
         <v>2.279090113735793</v>
@@ -7791,8 +7615,8 @@
       </c>
     </row>
     <row r="19" spans="1:150">
-      <c r="A19" s="2" t="s">
-        <v>17</v>
+      <c r="A19" s="1">
+        <v>32142</v>
       </c>
       <c r="B19">
         <v>1.278816132757377</v>
@@ -8243,8 +8067,8 @@
       </c>
     </row>
     <row r="20" spans="1:150">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
+      <c r="A20" s="1">
+        <v>32508</v>
       </c>
       <c r="C20">
         <v>3.44172297297296</v>
@@ -8692,8 +8516,8 @@
       </c>
     </row>
     <row r="21" spans="1:150">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
+      <c r="A21" s="1">
+        <v>32873</v>
       </c>
       <c r="G21">
         <v>4.033476219636656</v>
@@ -9129,8 +8953,8 @@
       </c>
     </row>
     <row r="22" spans="1:150">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
+      <c r="A22" s="1">
+        <v>33238</v>
       </c>
       <c r="K22">
         <v>5.482086096613448</v>
@@ -9554,8 +9378,8 @@
       </c>
     </row>
     <row r="23" spans="1:150">
-      <c r="A23" s="2" t="s">
-        <v>21</v>
+      <c r="A23" s="1">
+        <v>33603</v>
       </c>
       <c r="O23">
         <v>6.118004442050284</v>
@@ -9967,8 +9791,8 @@
       </c>
     </row>
     <row r="24" spans="1:150">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
+      <c r="A24" s="1">
+        <v>33969</v>
       </c>
       <c r="S24">
         <v>1.839868480884266</v>
@@ -10368,8 +10192,8 @@
       </c>
     </row>
     <row r="25" spans="1:150">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
+      <c r="A25" s="1">
+        <v>34334</v>
       </c>
       <c r="W25">
         <v>-1.202129486518955</v>
@@ -10757,8 +10581,8 @@
       </c>
     </row>
     <row r="26" spans="1:150">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
+      <c r="A26" s="1">
+        <v>34699</v>
       </c>
       <c r="AA26">
         <v>2.972362245784832</v>
@@ -11134,8 +10958,8 @@
       </c>
     </row>
     <row r="27" spans="1:150">
-      <c r="A27" s="2" t="s">
-        <v>25</v>
+      <c r="A27" s="1">
+        <v>35064</v>
       </c>
       <c r="AE27">
         <v>2.106684672518577</v>
@@ -11499,8 +11323,8 @@
       </c>
     </row>
     <row r="28" spans="1:150">
-      <c r="A28" s="2" t="s">
-        <v>26</v>
+      <c r="A28" s="1">
+        <v>35430</v>
       </c>
       <c r="AI28">
         <v>1.376253018824225</v>
@@ -11852,8 +11676,8 @@
       </c>
     </row>
     <row r="29" spans="1:150">
-      <c r="A29" s="2" t="s">
-        <v>27</v>
+      <c r="A29" s="1">
+        <v>35795</v>
       </c>
       <c r="AM29">
         <v>2.308221196346105</v>
@@ -12193,8 +12017,8 @@
       </c>
     </row>
     <row r="30" spans="1:150">
-      <c r="A30" s="2" t="s">
-        <v>28</v>
+      <c r="A30" s="1">
+        <v>36160</v>
       </c>
       <c r="AQ30">
         <v>2.541062801932337</v>
@@ -12522,8 +12346,8 @@
       </c>
     </row>
     <row r="31" spans="1:150">
-      <c r="A31" s="2" t="s">
-        <v>29</v>
+      <c r="A31" s="1">
+        <v>36525</v>
       </c>
       <c r="AU31">
         <v>1.367676015113628</v>
@@ -12839,8 +12663,8 @@
       </c>
     </row>
     <row r="32" spans="1:150">
-      <c r="A32" s="2" t="s">
-        <v>30</v>
+      <c r="A32" s="1">
+        <v>36891</v>
       </c>
       <c r="AY32">
         <v>3.124934328044526</v>
@@ -13144,8 +12968,8 @@
       </c>
     </row>
     <row r="33" spans="1:150">
-      <c r="A33" s="2" t="s">
-        <v>31</v>
+      <c r="A33" s="1">
+        <v>37256</v>
       </c>
       <c r="BC33">
         <v>0.7423893656915315</v>
@@ -13437,8 +13261,8 @@
       </c>
     </row>
     <row r="34" spans="1:150">
-      <c r="A34" s="2" t="s">
-        <v>32</v>
+      <c r="A34" s="1">
+        <v>37621</v>
       </c>
       <c r="BG34">
         <v>0.2243622063123674</v>
@@ -13718,8 +13542,8 @@
       </c>
     </row>
     <row r="35" spans="1:150">
-      <c r="A35" s="2" t="s">
-        <v>33</v>
+      <c r="A35" s="1">
+        <v>37986</v>
       </c>
       <c r="BK35">
         <v>-0.116923848952466</v>
@@ -13987,8 +13811,8 @@
       </c>
     </row>
     <row r="36" spans="1:150">
-      <c r="A36" s="2" t="s">
-        <v>34</v>
+      <c r="A36" s="1">
+        <v>38352</v>
       </c>
       <c r="BO36">
         <v>1.025896464455855</v>
@@ -14244,8 +14068,8 @@
       </c>
     </row>
     <row r="37" spans="1:150">
-      <c r="A37" s="2" t="s">
-        <v>35</v>
+      <c r="A37" s="1">
+        <v>38717</v>
       </c>
       <c r="BS37">
         <v>1.09157509157507</v>
@@ -14489,8 +14313,8 @@
       </c>
     </row>
     <row r="38" spans="1:150">
-      <c r="A38" s="2" t="s">
-        <v>36</v>
+      <c r="A38" s="1">
+        <v>39082</v>
       </c>
       <c r="BW38">
         <v>2.893453954548764</v>
@@ -14722,8 +14546,8 @@
       </c>
     </row>
     <row r="39" spans="1:150">
-      <c r="A39" s="2" t="s">
-        <v>37</v>
+      <c r="A39" s="1">
+        <v>39447</v>
       </c>
       <c r="CA39">
         <v>2.623005005194057</v>
@@ -14943,8 +14767,8 @@
       </c>
     </row>
     <row r="40" spans="1:150">
-      <c r="A40" s="2" t="s">
-        <v>38</v>
+      <c r="A40" s="1">
+        <v>39813</v>
       </c>
       <c r="CE40">
         <v>0.9806848717300864</v>
@@ -15152,8 +14976,8 @@
       </c>
     </row>
     <row r="41" spans="1:150">
-      <c r="A41" s="2" t="s">
-        <v>39</v>
+      <c r="A41" s="1">
+        <v>40178</v>
       </c>
       <c r="CI41">
         <v>-4.922909239537676</v>
@@ -15349,8 +15173,8 @@
       </c>
     </row>
     <row r="42" spans="1:150">
-      <c r="A42" s="2" t="s">
-        <v>40</v>
+      <c r="A42" s="1">
+        <v>40543</v>
       </c>
       <c r="CM42">
         <v>3.506518222475963</v>
@@ -15534,8 +15358,8 @@
       </c>
     </row>
     <row r="43" spans="1:150">
-      <c r="A43" s="2" t="s">
-        <v>41</v>
+      <c r="A43" s="1">
+        <v>40908</v>
       </c>
       <c r="CQ43">
         <v>3.057960105382018</v>
@@ -15707,8 +15531,8 @@
       </c>
     </row>
     <row r="44" spans="1:150">
-      <c r="A44" s="2" t="s">
-        <v>42</v>
+      <c r="A44" s="1">
+        <v>41274</v>
       </c>
       <c r="CU44">
         <v>0.8676691046200169</v>
@@ -15868,8 +15692,8 @@
       </c>
     </row>
     <row r="45" spans="1:150">
-      <c r="A45" s="2" t="s">
-        <v>43</v>
+      <c r="A45" s="1">
+        <v>41639</v>
       </c>
       <c r="CY45">
         <v>0.5328956244097904</v>
@@ -16017,8 +15841,8 @@
       </c>
     </row>
     <row r="46" spans="1:150">
-      <c r="A46" s="2" t="s">
-        <v>44</v>
+      <c r="A46" s="1">
+        <v>42004</v>
       </c>
       <c r="DC46">
         <v>1.606599045632207</v>
@@ -16154,8 +15978,8 @@
       </c>
     </row>
     <row r="47" spans="1:150">
-      <c r="A47" s="2" t="s">
-        <v>45</v>
+      <c r="A47" s="1">
+        <v>42369</v>
       </c>
       <c r="DG47">
         <v>1.449991761410452</v>
@@ -16279,8 +16103,8 @@
       </c>
     </row>
     <row r="48" spans="1:150">
-      <c r="A48" s="2" t="s">
-        <v>46</v>
+      <c r="A48" s="1">
+        <v>42735</v>
       </c>
       <c r="DK48">
         <v>1.77402567364402</v>
@@ -16392,8 +16216,8 @@
       </c>
     </row>
     <row r="49" spans="1:150">
-      <c r="A49" s="2" t="s">
-        <v>47</v>
+      <c r="A49" s="1">
+        <v>43100</v>
       </c>
       <c r="DO49">
         <v>2.513972801122333</v>
@@ -16493,8 +16317,8 @@
       </c>
     </row>
     <row r="50" spans="1:150">
-      <c r="A50" s="2" t="s">
-        <v>48</v>
+      <c r="A50" s="1">
+        <v>43465</v>
       </c>
       <c r="DS50">
         <v>1.452268482917729</v>
@@ -16582,8 +16406,8 @@
       </c>
     </row>
     <row r="51" spans="1:150">
-      <c r="A51" s="2" t="s">
-        <v>49</v>
+      <c r="A51" s="1">
+        <v>43830</v>
       </c>
       <c r="DW51">
         <v>0.6010095081582234</v>
@@ -16659,8 +16483,8 @@
       </c>
     </row>
     <row r="52" spans="1:150">
-      <c r="A52" s="2" t="s">
-        <v>50</v>
+      <c r="A52" s="1">
+        <v>44196</v>
       </c>
       <c r="EA52">
         <v>-5.264756741599285</v>
@@ -16724,8 +16548,8 @@
       </c>
     </row>
     <row r="53" spans="1:150">
-      <c r="A53" s="2" t="s">
-        <v>51</v>
+      <c r="A53" s="1">
+        <v>44561</v>
       </c>
       <c r="EE53">
         <v>2.869314008715662</v>
@@ -16777,8 +16601,8 @@
       </c>
     </row>
     <row r="54" spans="1:150">
-      <c r="A54" s="2" t="s">
-        <v>52</v>
+      <c r="A54" s="1">
+        <v>44926</v>
       </c>
       <c r="EI54">
         <v>1.858296049049546</v>
@@ -16818,8 +16642,8 @@
       </c>
     </row>
     <row r="55" spans="1:150">
-      <c r="A55" s="2" t="s">
-        <v>53</v>
+      <c r="A55" s="1">
+        <v>45291</v>
       </c>
       <c r="EM55">
         <v>-0.1110802554845747</v>
@@ -16847,8 +16671,8 @@
       </c>
     </row>
     <row r="56" spans="1:150">
-      <c r="A56" s="2" t="s">
-        <v>54</v>
+      <c r="A56" s="1">
+        <v>45657</v>
       </c>
       <c r="EQ56">
         <v>-0.2026849798507313</v>
@@ -16864,8 +16688,8 @@
       </c>
     </row>
     <row r="57" spans="1:150">
-      <c r="A57" s="2" t="s">
-        <v>55</v>
+      <c r="A57" s="1">
+        <v>46022</v>
       </c>
     </row>
   </sheetData>
